--- a/REGULAR/OJT/NEW DONE/DE GRANO, MA. ERLINDA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DE GRANO, MA. ERLINDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D8E25C-F6ED-463D-8AB2-355E0C729F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CF0A9F-1FEF-4D48-89C0-93D6C099FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="261">
   <si>
     <t>PERIOD</t>
   </si>
@@ -834,6 +834,9 @@
   </si>
   <si>
     <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>6/26-27/2023</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,9 +1250,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1511,7 +1511,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1520,7 +1520,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1861,9 +1861,9 @@
   <dimension ref="A2:K412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A366" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="H373" sqref="H373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2030,7 +2030,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>176.35999999999999</v>
+        <v>178.85999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2040,7 +2040,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>303.125</v>
+        <v>303.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9983,15 +9983,17 @@
       <c r="B371" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C371" s="13"/>
+      <c r="C371" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D371" s="39">
         <v>1</v>
       </c>
       <c r="E371" s="9"/>
       <c r="F371" s="20"/>
-      <c r="G371" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G371" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H371" s="39"/>
       <c r="I371" s="9"/>
@@ -10026,19 +10028,27 @@
       <c r="A373" s="40">
         <v>45078</v>
       </c>
-      <c r="B373" s="20"/>
-      <c r="C373" s="13"/>
+      <c r="B373" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C373" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D373" s="39"/>
       <c r="E373" s="9"/>
       <c r="F373" s="20"/>
-      <c r="G373" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H373" s="39"/>
+      <c r="G373" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H373" s="39">
+        <v>2</v>
+      </c>
       <c r="I373" s="9"/>
       <c r="J373" s="11"/>
-      <c r="K373" s="20"/>
+      <c r="K373" s="20" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
@@ -10891,9 +10901,9 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="61">
+      <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>479.48500000000001</v>
+        <v>482.48500000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
